--- a/Win32/Binaries/Table/twelvepalacechapter.xlsx
+++ b/Win32/Binaries/Table/twelvepalacechapter.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="注释" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
   <si>
     <t>int</t>
   </si>
@@ -142,44 +143,7 @@
     <t>point</t>
   </si>
   <si>
-    <t>#hoarstone_icon_stoneMain_1.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_2.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_3.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_4.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_5.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_6.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_7.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_8.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_9.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_11.png</t>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_12.png</t>
-  </si>
-  <si>
     <t>纳宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#hoarstone_icon_stoneMain_10.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,132 +151,316 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1;17</t>
+    <t>bossname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳宗宗主</t>
+  </si>
+  <si>
+    <t>录宗宗主</t>
+  </si>
+  <si>
+    <t>督宗宗主</t>
+  </si>
+  <si>
+    <t>判宗宗主</t>
+  </si>
+  <si>
+    <t>手宗宗主</t>
+  </si>
+  <si>
+    <t>眼宗宗主</t>
+  </si>
+  <si>
+    <t>身宗宗主</t>
+  </si>
+  <si>
+    <t>步宗宗主</t>
+  </si>
+  <si>
+    <t>唱宗宗主</t>
+  </si>
+  <si>
+    <t>念宗宗主</t>
+  </si>
+  <si>
+    <t>做宗宗主</t>
+  </si>
+  <si>
+    <t>打宗宗主</t>
+  </si>
+  <si>
+    <t>186,154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326,342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>465,182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>625,343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>764,136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>953,267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1146,210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1306,343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1446,155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1626,313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1821,135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1989,314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;50</t>
+  </si>
+  <si>
+    <t>1;55</t>
+  </si>
+  <si>
+    <t>1;60</t>
+  </si>
+  <si>
+    <t>1;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50101;50102;50103;50104;50105</t>
+  </si>
+  <si>
+    <t>50201;50202;50203;50204;50205</t>
+  </si>
+  <si>
+    <t>50301;50302;50303;50304;50305</t>
+  </si>
+  <si>
+    <t>50401;50402;50403;50404;50405</t>
+  </si>
+  <si>
+    <t>50501;50502;50503;50504;50505</t>
+  </si>
+  <si>
+    <t>50601;50602;50603;50604;50605</t>
+  </si>
+  <si>
+    <t>50701;50702;50703;50704;50705</t>
+  </si>
+  <si>
+    <t>50801;50802;50803;50804;50805</t>
+  </si>
+  <si>
+    <t>50901;50902;50903;50904;50905</t>
+  </si>
+  <si>
+    <t>51001;51002;51003;51004;51005</t>
+  </si>
+  <si>
+    <t>51101;51102;51103;51104;51105</t>
+  </si>
+  <si>
+    <t>51201;51202;51203;51204;51205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总星星数，目前没用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图中的图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss名字，目前没看到哪里用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_1.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_2.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_3.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_4.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_5.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_6.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_7.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_8.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_9.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_10.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_11.png</t>
+  </si>
+  <si>
+    <t>ui/horstone_pic/hoarstone_icon_stoneMain_12.png</t>
+  </si>
+  <si>
+    <t>墨兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董王爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银婆婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳兰</t>
+  </si>
+  <si>
+    <t>铁面</t>
+  </si>
+  <si>
+    <t>无情</t>
+  </si>
+  <si>
+    <t>忠</t>
+  </si>
+  <si>
+    <t>西门</t>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚山君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_1.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_2.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_3.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_4.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_5.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_6.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_7.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_8.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_9.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_10.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_11.png</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_12.png</t>
+  </si>
+  <si>
+    <t>1;20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bossname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳宗宗主</t>
-  </si>
-  <si>
-    <t>录宗宗主</t>
-  </si>
-  <si>
-    <t>督宗宗主</t>
-  </si>
-  <si>
-    <t>判宗宗主</t>
-  </si>
-  <si>
-    <t>手宗宗主</t>
-  </si>
-  <si>
-    <t>眼宗宗主</t>
-  </si>
-  <si>
-    <t>身宗宗主</t>
-  </si>
-  <si>
-    <t>步宗宗主</t>
-  </si>
-  <si>
-    <t>唱宗宗主</t>
-  </si>
-  <si>
-    <t>念宗宗主</t>
-  </si>
-  <si>
-    <t>做宗宗主</t>
-  </si>
-  <si>
-    <t>打宗宗主</t>
-  </si>
-  <si>
-    <t>186,154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>326,342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>465,182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>625,343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>764,136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>953,267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1146,210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1306,343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1446,155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1626,313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1821,135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1989,314</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;50</t>
-  </si>
-  <si>
-    <t>1;55</t>
-  </si>
-  <si>
-    <t>1;60</t>
-  </si>
-  <si>
-    <t>1;20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;35</t>
+    <t>1;70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +497,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +519,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,14 +548,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
@@ -404,9 +593,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,10 +909,10 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
@@ -884,29 +1081,28 @@
         <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="str">
-        <f>CONCATENATE(A3*100+1,";",A3*100+2,";",A3*100+3,";",A3*100+4,";",A3*100+5)</f>
-        <v>50101;50102;50103;50104;50105</v>
+      <c r="N3" t="s">
+        <v>76</v>
       </c>
       <c r="O3">
         <v>17</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
@@ -919,24 +1115,23 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N14" si="0">CONCATENATE(A4*100+1,";",A4*100+2,";",A4*100+3,";",A4*100+4,";",A4*100+5)</f>
-        <v>50201;50202;50203;50204;50205</v>
+      <c r="N4" t="s">
+        <v>77</v>
       </c>
       <c r="O4">
         <v>17</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
@@ -949,24 +1144,23 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="0"/>
-        <v>50301;50302;50303;50304;50305</v>
+      <c r="N5" t="s">
+        <v>78</v>
       </c>
       <c r="O5">
         <v>17</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
@@ -979,24 +1173,23 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="0"/>
-        <v>50401;50402;50403;50404;50405</v>
+      <c r="N6" t="s">
+        <v>79</v>
       </c>
       <c r="O6">
         <v>17</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
@@ -1009,24 +1202,23 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="0"/>
-        <v>50501;50502;50503;50504;50505</v>
+      <c r="N7" t="s">
+        <v>80</v>
       </c>
       <c r="O7">
         <v>17</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
@@ -1039,24 +1231,23 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="0"/>
-        <v>50601;50602;50603;50604;50605</v>
+      <c r="N8" t="s">
+        <v>81</v>
       </c>
       <c r="O8">
         <v>17</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
@@ -1069,24 +1260,23 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="0"/>
-        <v>50701;50702;50703;50704;50705</v>
+      <c r="N9" t="s">
+        <v>82</v>
       </c>
       <c r="O9">
         <v>17</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
@@ -1099,24 +1289,23 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="0"/>
-        <v>50801;50802;50803;50804;50805</v>
+      <c r="N10" t="s">
+        <v>83</v>
       </c>
       <c r="O10">
         <v>17</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
@@ -1129,24 +1318,23 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" si="0"/>
-        <v>50901;50902;50903;50904;50905</v>
+      <c r="N11" t="s">
+        <v>84</v>
       </c>
       <c r="O11">
         <v>17</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
@@ -1159,24 +1347,23 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="N12" t="str">
-        <f t="shared" si="0"/>
-        <v>51001;51002;51003;51004;51005</v>
+      <c r="N12" t="s">
+        <v>85</v>
       </c>
       <c r="O12">
         <v>17</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
@@ -1189,24 +1376,23 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" si="0"/>
-        <v>51101;51102;51103;51104;51105</v>
+      <c r="N13" t="s">
+        <v>86</v>
       </c>
       <c r="O13">
         <v>17</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
@@ -1219,27 +1405,27 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="0"/>
-        <v>51201;51202;51203;51204;51205</v>
+      <c r="N14" t="s">
+        <v>87</v>
       </c>
       <c r="O14">
         <v>17</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1251,7 +1437,7 @@
   <dimension ref="B3:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G12:G23"/>
+      <selection sqref="A1:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,4 +1779,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(A3*100+1,";",A3*100+2,";",A3*100+3,";",A3*100+4,";",A3*100+5)</f>
+        <v>50101;50102;50103;50104;50105</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>502</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N14" si="0">CONCATENATE(A4*100+1,";",A4*100+2,";",A4*100+3,";",A4*100+4,";",A4*100+5)</f>
+        <v>50201;50202;50203;50204;50205</v>
+      </c>
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>503</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>50301;50302;50303;50304;50305</v>
+      </c>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>504</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>50401;50402;50403;50404;50405</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>505</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>50501;50502;50503;50504;50505</v>
+      </c>
+      <c r="O7">
+        <v>17</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>506</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>50601;50602;50603;50604;50605</v>
+      </c>
+      <c r="O8">
+        <v>17</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>50701;50702;50703;50704;50705</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>508</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>50801;50802;50803;50804;50805</v>
+      </c>
+      <c r="O10">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>509</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>50901;50902;50903;50904;50905</v>
+      </c>
+      <c r="O11">
+        <v>17</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>510</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>51001;51002;51003;51004;51005</v>
+      </c>
+      <c r="O12">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>511</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>51101;51102;51103;51104;51105</v>
+      </c>
+      <c r="O13">
+        <v>17</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>512</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>51201;51202;51203;51204;51205</v>
+      </c>
+      <c r="O14">
+        <v>17</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>